--- a/biology/Microbiologie/Epsilonproteobacteria/Epsilonproteobacteria.xlsx
+++ b/biology/Microbiologie/Epsilonproteobacteria/Epsilonproteobacteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les Epsilonproteobacteria ou Protéobactéries ε constituent l'un des cinq groupes de Proteobacteria.
 Il comprend :
@@ -518,7 +530,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Protéobactéries ε ont la forme de bâtonnets droits, courbes ou en hélice. Elles possèdent un ou plusieurs flagelles qu'elles utilisent pour leur locomotion. Leur longueur varie de 0,5 à 5 µm.
 </t>
@@ -549,7 +563,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines de ces bactéries vivent près des sources hydrothermales, mais la plupart ont un mode de vie parasitique ou symbiote. Ces dernières vivent dans les voies digestives ou génitales des Mammifères. Bon nombre d'entre elles sont pathogènes (ex: Campylobacter fetus, Campylobacter jejuni, Helicobacter pylori...).
 </t>
